--- a/database/seeders/_hoc_phi_seeder.xlsx
+++ b/database/seeders/_hoc_phi_seeder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="khoan_thu" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="17">
   <si>
     <t>trangthai</t>
   </si>
@@ -53,115 +53,19 @@
     <t>2020/10/10</t>
   </si>
   <si>
-    <t>2020/10/11</t>
-  </si>
-  <si>
-    <t>2020/10/12</t>
-  </si>
-  <si>
-    <t>2020/10/13</t>
-  </si>
-  <si>
-    <t>2020/10/14</t>
-  </si>
-  <si>
-    <t>2020/10/15</t>
-  </si>
-  <si>
     <t>2020/10/16</t>
-  </si>
-  <si>
-    <t>2020/10/17</t>
-  </si>
-  <si>
-    <t>2020/10/18</t>
-  </si>
-  <si>
-    <t>2020/10/19</t>
-  </si>
-  <si>
-    <t>2020/10/20</t>
-  </si>
-  <si>
-    <t>2020/10/21</t>
   </si>
   <si>
     <t>2020/10/22</t>
   </si>
   <si>
-    <t>2020/10/23</t>
-  </si>
-  <si>
-    <t>2020/10/24</t>
-  </si>
-  <si>
-    <t>2020/10/25</t>
-  </si>
-  <si>
-    <t>2020/10/26</t>
-  </si>
-  <si>
-    <t>2020/10/27</t>
-  </si>
-  <si>
     <t>2020/11/10</t>
-  </si>
-  <si>
-    <t>2020/11/11</t>
-  </si>
-  <si>
-    <t>2020/11/12</t>
-  </si>
-  <si>
-    <t>2020/11/13</t>
   </si>
   <si>
     <t>2020/11/14</t>
   </si>
   <si>
-    <t>2020/11/15</t>
-  </si>
-  <si>
-    <t>2020/11/16</t>
-  </si>
-  <si>
-    <t>2020/11/17</t>
-  </si>
-  <si>
     <t>2020/11/18</t>
-  </si>
-  <si>
-    <t>2020/11/19</t>
-  </si>
-  <si>
-    <t>2020/11/20</t>
-  </si>
-  <si>
-    <t>2020/11/21</t>
-  </si>
-  <si>
-    <t>2020/11/22</t>
-  </si>
-  <si>
-    <t>2020/11/23</t>
-  </si>
-  <si>
-    <t>2020/11/24</t>
-  </si>
-  <si>
-    <t>2020/11/25</t>
-  </si>
-  <si>
-    <t>2020/11/26</t>
-  </si>
-  <si>
-    <t>2020/11/27</t>
-  </si>
-  <si>
-    <t>2020/11/28</t>
-  </si>
-  <si>
-    <t>2020/11/29</t>
   </si>
 </sst>
 </file>
@@ -506,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +461,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -574,10 +478,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,10 +498,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,10 +518,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,10 +558,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,10 +578,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -714,10 +618,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -754,10 +658,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,10 +678,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,10 +698,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,10 +718,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -834,10 +738,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,10 +758,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,10 +778,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -894,10 +798,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -934,10 +838,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,10 +858,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,10 +878,10 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,10 +898,10 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,10 +918,10 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,10 +938,10 @@
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,10 +978,10 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1114,10 +1018,10 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,10 +1038,10 @@
         <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1174,10 +1078,10 @@
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1194,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,10 +1118,10 @@
         <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,10 +1138,10 @@
         <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,10 +1158,10 @@
         <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1274,10 +1178,10 @@
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,10 +1218,10 @@
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,10 +1238,10 @@
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,10 +1258,10 @@
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,10 +1278,10 @@
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,10 +1298,10 @@
         <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1414,10 +1318,10 @@
         <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1434,10 +1338,10 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,10 +1358,10 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,10 +1378,10 @@
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,10 +1398,10 @@
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,10 +1418,10 @@
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,10 +1438,10 @@
         <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,10 +1458,10 @@
         <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/database/seeders/_hoc_phi_seeder.xlsx
+++ b/database/seeders/_hoc_phi_seeder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8184" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="khoan_thu" sheetId="3" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,21 +410,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -444,7 +444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -504,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -544,7 +544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -564,7 +564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -584,7 +584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -644,7 +644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -664,7 +664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -684,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -744,7 +744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -764,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -804,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -824,7 +824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -884,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -904,7 +904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -924,7 +924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -944,7 +944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1464,34 +1464,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F61" s="1"/>
     </row>
   </sheetData>
@@ -1502,137 +1502,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
